--- a/results/origin_arousal/s06.xlsx
+++ b/results/origin_arousal/s06.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0.0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1.0" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,18 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>accuracy</t>
   </si>
   <si>
     <t>batch_size</t>
-  </si>
-  <si>
-    <t>calibration</t>
-  </si>
-  <si>
-    <t>cnn_fc</t>
   </si>
   <si>
     <t>conv_1</t>
@@ -41,7 +36,7 @@
     <t>conv_3</t>
   </si>
   <si>
-    <t>conv_fuse</t>
+    <t>conv_4</t>
   </si>
   <si>
     <t>epoch</t>
@@ -59,19 +54,7 @@
     <t>learning_rate</t>
   </si>
   <si>
-    <t>n_person</t>
-  </si>
-  <si>
     <t>norm</t>
-  </si>
-  <si>
-    <t>pool_1</t>
-  </si>
-  <si>
-    <t>pool_2</t>
-  </si>
-  <si>
-    <t>pool_3</t>
   </si>
   <si>
     <t>regularization</t>
@@ -92,28 +75,22 @@
     <t>train_sample</t>
   </si>
   <si>
-    <t>N</t>
+    <t>4*4*32</t>
   </si>
   <si>
-    <t>3*3*1*32</t>
+    <t>4*4*64</t>
   </si>
   <si>
-    <t>3*3*1*64</t>
+    <t>4*4*128</t>
   </si>
   <si>
-    <t>3*3*1*128</t>
-  </si>
-  <si>
-    <t>plus</t>
+    <t>1*1*13</t>
   </si>
   <si>
     <t>concat</t>
   </si>
   <si>
     <t>2D</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>dropout</t>
@@ -129,6 +106,15 @@
   </si>
   <si>
     <t>train_loss</t>
+  </si>
+  <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
   </si>
   <si>
     <t>fpr</t>
@@ -486,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +480,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,96 +535,60 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.6324999928474426</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="n">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="n">
+        <v>32</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="n">
+      <c r="N2" t="n">
         <v>1024</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="n">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="n">
-        <v>32</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="O2" t="n">
         <v>1024</v>
       </c>
-      <c r="U2" t="n">
-        <v>1024</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="P2" t="n">
         <v>128</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Q2" t="n">
         <v>240</v>
       </c>
-      <c r="X2" t="n">
+      <c r="R2" t="n">
         <v>2160</v>
       </c>
     </row>
@@ -663,19 +613,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -683,16 +633,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4774999916553497</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C2" t="n">
-        <v>995.2206420898438</v>
+        <v>995.4709167480469</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5287499888376757</v>
+        <v>0.5379545417698947</v>
       </c>
       <c r="E2" t="n">
-        <v>994.9663585316051</v>
+        <v>996.1034212979404</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -700,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5474999845027924</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C3" t="n">
-        <v>977.5369262695312</v>
+        <v>977.8718566894531</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5340909036723051</v>
+        <v>0.5355681831186468</v>
       </c>
       <c r="E3" t="n">
-        <v>976.7200206409801</v>
+        <v>977.6073885830966</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -717,16 +667,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5275000035762787</v>
+        <v>0.5349999964237213</v>
       </c>
       <c r="C4" t="n">
-        <v>959.6722106933594</v>
+        <v>960.069091796875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5735227248885415</v>
+        <v>0.574545453895222</v>
       </c>
       <c r="E4" t="n">
-        <v>958.8934714577415</v>
+        <v>959.5575006658381</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -734,16 +684,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5050000101327896</v>
+        <v>0.5049999952316284</v>
       </c>
       <c r="C5" t="n">
-        <v>942.6465759277344</v>
+        <v>942.7725219726562</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5847727277062156</v>
+        <v>0.5774999911134894</v>
       </c>
       <c r="E5" t="n">
-        <v>941.391923384233</v>
+        <v>941.9258311878551</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -751,16 +701,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.5825000107288361</v>
       </c>
       <c r="C6" t="n">
-        <v>925.4578857421875</v>
+        <v>925.449951171875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6077272729440168</v>
+        <v>0.5988636341961947</v>
       </c>
       <c r="E6" t="n">
-        <v>924.2311401367188</v>
+        <v>924.6503351384944</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -768,16 +718,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C7" t="n">
-        <v>908.74560546875</v>
+        <v>908.5970153808594</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6126136346296831</v>
+        <v>0.612954551523382</v>
       </c>
       <c r="E7" t="n">
-        <v>907.4151333895596</v>
+        <v>907.6831387606534</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -785,16 +735,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5199999958276749</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C8" t="n">
-        <v>892.3371276855469</v>
+        <v>891.9428100585938</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6237499984827909</v>
+        <v>0.6235227259722623</v>
       </c>
       <c r="E8" t="n">
-        <v>890.8905029296875</v>
+        <v>891.0069247159091</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -802,16 +752,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.5800000131130219</v>
       </c>
       <c r="C9" t="n">
-        <v>876.0512390136719</v>
+        <v>875.5972900390625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6446590911258351</v>
+        <v>0.6255681839856234</v>
       </c>
       <c r="E9" t="n">
-        <v>874.6507623845881</v>
+        <v>874.6350763494319</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -819,16 +769,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5225000083446503</v>
+        <v>0.574999988079071</v>
       </c>
       <c r="C10" t="n">
-        <v>860.2177124023438</v>
+        <v>859.6229858398438</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6369318149306558</v>
+        <v>0.6406818194822832</v>
       </c>
       <c r="E10" t="n">
-        <v>858.6731955788352</v>
+        <v>858.5829190340909</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -836,16 +786,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5275000035762787</v>
+        <v>0.5825000107288361</v>
       </c>
       <c r="C11" t="n">
-        <v>844.5304870605469</v>
+        <v>843.7875671386719</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6539772694761102</v>
+        <v>0.6525000062855807</v>
       </c>
       <c r="E11" t="n">
-        <v>843.0041559392756</v>
+        <v>842.7884355024858</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -853,16 +803,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5524999797344208</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C12" t="n">
-        <v>829.0596008300781</v>
+        <v>828.2923583984375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6702272675254128</v>
+        <v>0.6515909108248624</v>
       </c>
       <c r="E12" t="n">
-        <v>827.6246115944602</v>
+        <v>827.318281693892</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -870,16 +820,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.5625</v>
       </c>
       <c r="C13" t="n">
-        <v>813.9480590820312</v>
+        <v>813.1824340820312</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6786363666707819</v>
+        <v>0.6629545417698947</v>
       </c>
       <c r="E13" t="n">
-        <v>812.4624911221591</v>
+        <v>812.099570534446</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -887,16 +837,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5149999856948853</v>
+        <v>0.5825000107288361</v>
       </c>
       <c r="C14" t="n">
-        <v>799.1823425292969</v>
+        <v>798.2174987792969</v>
       </c>
       <c r="D14" t="n">
-        <v>0.668295448476618</v>
+        <v>0.6742045391689647</v>
       </c>
       <c r="E14" t="n">
-        <v>797.6102960759944</v>
+        <v>797.1566384055398</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -904,16 +854,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5374999940395355</v>
+        <v>0.5825000107288361</v>
       </c>
       <c r="C15" t="n">
-        <v>784.47705078125</v>
+        <v>783.5245971679688</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6904545534740795</v>
+        <v>0.674318178133531</v>
       </c>
       <c r="E15" t="n">
-        <v>783.0099043412642</v>
+        <v>782.4848077947444</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -921,16 +871,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.5825000107288361</v>
       </c>
       <c r="C16" t="n">
-        <v>770.1478881835938</v>
+        <v>769.1408386230469</v>
       </c>
       <c r="D16" t="n">
-        <v>0.696363627910614</v>
+        <v>0.6873863664540377</v>
       </c>
       <c r="E16" t="n">
-        <v>768.6670809659091</v>
+        <v>768.0739413174716</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -938,16 +888,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5249999761581421</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C17" t="n">
-        <v>756.1342163085938</v>
+        <v>754.9810180664062</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6934090961109508</v>
+        <v>0.6904545534740795</v>
       </c>
       <c r="E17" t="n">
-        <v>754.5931230024858</v>
+        <v>753.9235395951705</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -955,16 +905,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5399999916553497</v>
+        <v>0.5774999856948853</v>
       </c>
       <c r="C18" t="n">
-        <v>742.1630554199219</v>
+        <v>741.04541015625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7082954536784779</v>
+        <v>0.6926136396147988</v>
       </c>
       <c r="E18" t="n">
-        <v>740.7604536576705</v>
+        <v>740.0333473899148</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -972,16 +922,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.574999988079071</v>
       </c>
       <c r="C19" t="n">
-        <v>728.5484924316406</v>
+        <v>727.4115905761719</v>
       </c>
       <c r="D19" t="n">
-        <v>0.710340906273235</v>
+        <v>0.7046590989286249</v>
       </c>
       <c r="E19" t="n">
-        <v>727.1593350497159</v>
+        <v>726.3777687766335</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -989,16 +939,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5024999976158142</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C20" t="n">
-        <v>715.2517395019531</v>
+        <v>714.0249328613281</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7036363590847362</v>
+        <v>0.7094318216497247</v>
       </c>
       <c r="E20" t="n">
-        <v>713.8254727450284</v>
+        <v>712.979170365767</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1006,16 +956,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5199999809265137</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="C21" t="n">
-        <v>702.0621337890625</v>
+        <v>700.815673828125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7253409136425365</v>
+        <v>0.7137500047683716</v>
       </c>
       <c r="E21" t="n">
-        <v>700.7104936079545</v>
+        <v>699.8217218572444</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1023,16 +973,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5374999940395355</v>
+        <v>0.5649999976158142</v>
       </c>
       <c r="C22" t="n">
-        <v>689.1400146484375</v>
+        <v>687.8575134277344</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7309090982783925</v>
+        <v>0.7232954610477794</v>
       </c>
       <c r="E22" t="n">
-        <v>687.8411698774858</v>
+        <v>686.9063498757102</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1040,16 +990,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.512499988079071</v>
+        <v>0.5300000011920929</v>
       </c>
       <c r="C23" t="n">
-        <v>676.542236328125</v>
+        <v>675.2339477539062</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7131818207827482</v>
+        <v>0.7157954465259205</v>
       </c>
       <c r="E23" t="n">
-        <v>675.215498490767</v>
+        <v>674.2457386363636</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1057,16 +1007,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.5975000262260437</v>
       </c>
       <c r="C24" t="n">
-        <v>664.0401306152344</v>
+        <v>662.6856079101562</v>
       </c>
       <c r="D24" t="n">
-        <v>0.731136370788921</v>
+        <v>0.7202272740277377</v>
       </c>
       <c r="E24" t="n">
-        <v>662.803505637429</v>
+        <v>661.7900501598011</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1074,16 +1024,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.554999977350235</v>
       </c>
       <c r="C25" t="n">
-        <v>651.8079223632812</v>
+        <v>650.4730834960938</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7361363660205494</v>
+        <v>0.7359090880914168</v>
       </c>
       <c r="E25" t="n">
-        <v>650.6310535777699</v>
+        <v>649.5586381392045</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1091,16 +1041,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4874999970197678</v>
+        <v>0.5374999940395355</v>
       </c>
       <c r="C26" t="n">
-        <v>639.9346313476562</v>
+        <v>638.4886169433594</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7164772694761102</v>
+        <v>0.7252272746779702</v>
       </c>
       <c r="E26" t="n">
-        <v>638.6815462979404</v>
+        <v>637.584062056108</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1108,16 +1058,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5024999976158142</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C27" t="n">
-        <v>628.0902099609375</v>
+        <v>626.637451171875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7453408999876543</v>
+        <v>0.7350000034679066</v>
       </c>
       <c r="E27" t="n">
-        <v>626.9248879172585</v>
+        <v>625.8061079545455</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1125,16 +1075,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5224999785423279</v>
+        <v>0.5824999809265137</v>
       </c>
       <c r="C28" t="n">
-        <v>616.5259399414062</v>
+        <v>615.0916442871094</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7482954588803378</v>
+        <v>0.7409090941602533</v>
       </c>
       <c r="E28" t="n">
-        <v>615.4043690074574</v>
+        <v>614.2500610351562</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1142,16 +1092,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5049999952316284</v>
+        <v>0.5524999797344208</v>
       </c>
       <c r="C29" t="n">
-        <v>605.1821899414062</v>
+        <v>603.7277221679688</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7543181885372509</v>
+        <v>0.7481818253343756</v>
       </c>
       <c r="E29" t="n">
-        <v>604.0904929421165</v>
+        <v>602.9129527698864</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1159,16 +1109,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5049999952316284</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C30" t="n">
-        <v>594.033447265625</v>
+        <v>592.5396118164062</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7535227266224948</v>
+        <v>0.7453409108248624</v>
       </c>
       <c r="E30" t="n">
-        <v>592.9861505681819</v>
+        <v>591.7839799360795</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1176,16 +1126,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.512499988079071</v>
+        <v>0.554999977350235</v>
       </c>
       <c r="C31" t="n">
-        <v>583.0981750488281</v>
+        <v>581.6301574707031</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7478409084406766</v>
+        <v>0.7468181848526001</v>
       </c>
       <c r="E31" t="n">
-        <v>582.0864091352983</v>
+        <v>580.8664273348721</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1193,16 +1143,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5024999976158142</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C32" t="n">
-        <v>572.3717041015625</v>
+        <v>570.8584899902344</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7525000030344183</v>
+        <v>0.7511363571340387</v>
       </c>
       <c r="E32" t="n">
-        <v>571.3870683149858</v>
+        <v>570.1427334872159</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1210,16 +1160,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5149999856948853</v>
+        <v>0.5649999976158142</v>
       </c>
       <c r="C33" t="n">
-        <v>561.8494262695312</v>
+        <v>560.3176879882812</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7461363727396185</v>
+        <v>0.7537500099702314</v>
       </c>
       <c r="E33" t="n">
-        <v>560.8867353959517</v>
+        <v>559.6240234375</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1227,16 +1177,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5024999976158142</v>
+        <v>0.5750000178813934</v>
       </c>
       <c r="C34" t="n">
-        <v>551.496337890625</v>
+        <v>549.96044921875</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7573863593014803</v>
+        <v>0.7453409108248624</v>
       </c>
       <c r="E34" t="n">
-        <v>550.5796564275569</v>
+        <v>549.3004538796165</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1244,16 +1194,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5174999833106995</v>
+        <v>0.5725000202655792</v>
       </c>
       <c r="C35" t="n">
-        <v>541.3497619628906</v>
+        <v>539.8125610351562</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7578409151597456</v>
+        <v>0.7501136335459623</v>
       </c>
       <c r="E35" t="n">
-        <v>540.4601995294744</v>
+        <v>539.1687233664773</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1261,16 +1211,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5024999976158142</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C36" t="n">
-        <v>531.4058837890625</v>
+        <v>529.8476867675781</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7523863640698519</v>
+        <v>0.7504545450210571</v>
       </c>
       <c r="E36" t="n">
-        <v>530.5345514470881</v>
+        <v>529.2296364524148</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1278,16 +1228,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C37" t="n">
-        <v>521.6186218261719</v>
+        <v>520.0824584960938</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7579545432871039</v>
+        <v>0.7521590915593234</v>
       </c>
       <c r="E37" t="n">
-        <v>520.791825727983</v>
+        <v>519.477089621804</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1295,16 +1245,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5024999976158142</v>
+        <v>0.5750000178813934</v>
       </c>
       <c r="C38" t="n">
-        <v>512.0299377441406</v>
+        <v>510.4855194091797</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7555681792172518</v>
+        <v>0.7479545474052429</v>
       </c>
       <c r="E38" t="n">
-        <v>511.2340087890625</v>
+        <v>509.9110551313921</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1312,16 +1262,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5049999952316284</v>
+        <v>0.5750000178813934</v>
       </c>
       <c r="C39" t="n">
-        <v>502.6198425292969</v>
+        <v>501.0876922607422</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7569318196990273</v>
+        <v>0.7557954517277804</v>
       </c>
       <c r="E39" t="n">
-        <v>501.8496509898793</v>
+        <v>500.5245083895597</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1329,16 +1279,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5174999833106995</v>
+        <v>0.5875000059604645</v>
       </c>
       <c r="C40" t="n">
-        <v>493.3900756835938</v>
+        <v>491.8378295898438</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7551136341961947</v>
+        <v>0.7463636344129388</v>
       </c>
       <c r="E40" t="n">
-        <v>492.6448308771307</v>
+        <v>491.3126831054688</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1346,16 +1296,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5174999833106995</v>
+        <v>0.5875000059604645</v>
       </c>
       <c r="C41" t="n">
-        <v>484.3183288574219</v>
+        <v>482.7812805175781</v>
       </c>
       <c r="D41" t="n">
-        <v>0.759204544804313</v>
+        <v>0.7485227259722623</v>
       </c>
       <c r="E41" t="n">
-        <v>483.6128623268821</v>
+        <v>482.2756680575284</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1363,16 +1313,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4924999922513962</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C42" t="n">
-        <v>475.4426422119141</v>
+        <v>473.9020843505859</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7561363577842712</v>
+        <v>0.7557954517277804</v>
       </c>
       <c r="E42" t="n">
-        <v>474.7490123401989</v>
+        <v>473.4119123979048</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1380,16 +1330,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5024999976158142</v>
+        <v>0.5824999809265137</v>
       </c>
       <c r="C43" t="n">
-        <v>466.7146301269531</v>
+        <v>465.18359375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7573863701386885</v>
+        <v>0.750795451077548</v>
       </c>
       <c r="E43" t="n">
-        <v>466.0548317649148</v>
+        <v>464.7157065651634</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1397,16 +1347,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5024999976158142</v>
+        <v>0.5824999809265137</v>
       </c>
       <c r="C44" t="n">
-        <v>458.1543579101562</v>
+        <v>456.6322937011719</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7505681731484153</v>
+        <v>0.7469318183985624</v>
       </c>
       <c r="E44" t="n">
-        <v>457.5232294256037</v>
+        <v>456.1832968971946</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1414,16 +1364,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5199999809265137</v>
+        <v>0.5824999809265137</v>
       </c>
       <c r="C45" t="n">
-        <v>449.7508239746094</v>
+        <v>448.2454071044922</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7506818175315857</v>
+        <v>0.7440909147262573</v>
       </c>
       <c r="E45" t="n">
-        <v>449.1513089266691</v>
+        <v>447.814658425071</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1431,16 +1381,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5024999976158142</v>
+        <v>0.5850000083446503</v>
       </c>
       <c r="C46" t="n">
-        <v>441.5237426757812</v>
+        <v>440.0115051269531</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7563636411320079</v>
+        <v>0.7471590909090909</v>
       </c>
       <c r="E46" t="n">
-        <v>440.9412148215554</v>
+        <v>439.6061207164418</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1448,16 +1398,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5174999833106995</v>
+        <v>0.5875000059604645</v>
       </c>
       <c r="C47" t="n">
-        <v>433.4481353759766</v>
+        <v>431.9441070556641</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7585227272727273</v>
+        <v>0.7496590939435092</v>
       </c>
       <c r="E47" t="n">
-        <v>432.8823380903764</v>
+        <v>431.5500155362216</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1465,16 +1415,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5049999952316284</v>
+        <v>0.5824999809265137</v>
       </c>
       <c r="C48" t="n">
-        <v>425.5272064208984</v>
+        <v>424.0316314697266</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7511363625526428</v>
+        <v>0.7504545504396612</v>
       </c>
       <c r="E48" t="n">
-        <v>424.9789595170454</v>
+        <v>423.6502768776634</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1482,16 +1432,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5199999809265137</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="C49" t="n">
-        <v>417.7383117675781</v>
+        <v>416.2580261230469</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7524999976158142</v>
+        <v>0.750795456496152</v>
       </c>
       <c r="E49" t="n">
-        <v>417.2240600585938</v>
+        <v>415.9013616388494</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1499,16 +1449,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.5850000083446503</v>
       </c>
       <c r="C50" t="n">
-        <v>410.1109771728516</v>
+        <v>408.6322631835938</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7493181770498102</v>
+        <v>0.7427272688258778</v>
       </c>
       <c r="E50" t="n">
-        <v>409.6182306463068</v>
+        <v>408.3013139204546</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1516,16 +1466,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5149999856948853</v>
+        <v>0.5850000083446503</v>
       </c>
       <c r="C51" t="n">
-        <v>402.6381683349609</v>
+        <v>401.1685485839844</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7503408952192827</v>
+        <v>0.742386362769387</v>
       </c>
       <c r="E51" t="n">
-        <v>402.1546658602628</v>
+        <v>400.8464299982244</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1533,16 +1483,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5049999952316284</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="C52" t="n">
-        <v>395.3011474609375</v>
+        <v>393.8478088378906</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7505681839856234</v>
+        <v>0.7424999908967451</v>
       </c>
       <c r="E52" t="n">
-        <v>394.8341785777699</v>
+        <v>393.5322848233309</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1550,16 +1500,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5024999976158142</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C53" t="n">
-        <v>388.1020812988281</v>
+        <v>386.658203125</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7477272748947144</v>
+        <v>0.7397727207704023</v>
       </c>
       <c r="E53" t="n">
-        <v>387.6531177867543</v>
+        <v>386.3590670498934</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1567,16 +1517,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5049999952316284</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="C54" t="n">
-        <v>381.0332489013672</v>
+        <v>379.6035766601562</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7501136335459623</v>
+        <v>0.7426136298613115</v>
       </c>
       <c r="E54" t="n">
-        <v>380.6097467595881</v>
+        <v>379.3250260786577</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1584,16 +1534,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="C55" t="n">
-        <v>374.1063537597656</v>
+        <v>372.6977233886719</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7418181842023676</v>
+        <v>0.7400000095367432</v>
       </c>
       <c r="E55" t="n">
-        <v>373.6995960582386</v>
+        <v>372.4232538396662</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1601,16 +1551,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5250000059604645</v>
+        <v>0.5649999976158142</v>
       </c>
       <c r="C56" t="n">
-        <v>367.30810546875</v>
+        <v>365.9062957763672</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7473863634196195</v>
+        <v>0.7385227246717974</v>
       </c>
       <c r="E56" t="n">
-        <v>366.9211398037997</v>
+        <v>365.6546769575639</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1618,16 +1568,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.512499988079071</v>
+        <v>0.5824999809265137</v>
       </c>
       <c r="C57" t="n">
-        <v>360.6490325927734</v>
+        <v>359.2553100585938</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7392045476219871</v>
+        <v>0.7353409149430015</v>
       </c>
       <c r="E57" t="n">
-        <v>360.2732987837358</v>
+        <v>359.0174782492898</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1635,16 +1585,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5424999892711639</v>
+        <v>0.5900000035762787</v>
       </c>
       <c r="C58" t="n">
-        <v>354.1080627441406</v>
+        <v>352.7350921630859</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7410227277062156</v>
+        <v>0.7388636361468922</v>
       </c>
       <c r="E58" t="n">
-        <v>353.7520446777344</v>
+        <v>352.5076182972301</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1652,16 +1602,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5149999856948853</v>
+        <v>0.5875000059604645</v>
       </c>
       <c r="C59" t="n">
-        <v>347.7055358886719</v>
+        <v>346.3463287353516</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7364772666584362</v>
+        <v>0.7311363599517129</v>
       </c>
       <c r="E59" t="n">
-        <v>347.3552135120739</v>
+        <v>346.1217845569957</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1669,16 +1619,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5474999845027924</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C60" t="n">
-        <v>341.4098815917969</v>
+        <v>340.0645751953125</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7402272766286676</v>
+        <v>0.7329545562917535</v>
       </c>
       <c r="E60" t="n">
-        <v>341.0809187455611</v>
+        <v>339.8580655184659</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1686,16 +1636,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5399999916553497</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C61" t="n">
-        <v>335.2445831298828</v>
+        <v>333.9123687744141</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7345454584468495</v>
+        <v>0.7324999950148843</v>
       </c>
       <c r="E61" t="n">
-        <v>334.9257451837713</v>
+        <v>333.7159534801136</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1703,16 +1653,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.6099999845027924</v>
       </c>
       <c r="C62" t="n">
-        <v>329.1952819824219</v>
+        <v>327.8790130615234</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7348863590847362</v>
+        <v>0.7338636409152638</v>
       </c>
       <c r="E62" t="n">
-        <v>328.8901505903764</v>
+        <v>327.6916809082031</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1720,16 +1670,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5149999856948853</v>
+        <v>0.6099999845027924</v>
       </c>
       <c r="C63" t="n">
-        <v>323.2678527832031</v>
+        <v>321.9679260253906</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7327272675254128</v>
+        <v>0.7278409166769548</v>
       </c>
       <c r="E63" t="n">
-        <v>322.9699429598722</v>
+        <v>321.7836275967684</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1737,16 +1687,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.6175000071525574</v>
       </c>
       <c r="C64" t="n">
-        <v>317.4440765380859</v>
+        <v>316.1584777832031</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7301136363636364</v>
+        <v>0.7255681807344611</v>
       </c>
       <c r="E64" t="n">
-        <v>317.1616904518821</v>
+        <v>315.9907309792259</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1754,16 +1704,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5374999940395355</v>
+        <v>0.6349999904632568</v>
       </c>
       <c r="C65" t="n">
-        <v>311.7371368408203</v>
+        <v>310.4709167480469</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7292045463215221</v>
+        <v>0.7220454432747581</v>
       </c>
       <c r="E65" t="n">
-        <v>311.4659035422585</v>
+        <v>310.3077919699929</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1771,16 +1721,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5449999868869781</v>
+        <v>0.6274999976158142</v>
       </c>
       <c r="C66" t="n">
-        <v>306.1365051269531</v>
+        <v>304.8887023925781</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7312499934976752</v>
+        <v>0.7272727381099354</v>
       </c>
       <c r="E66" t="n">
-        <v>305.8805597478693</v>
+        <v>304.7336897416548</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1788,16 +1738,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.625</v>
       </c>
       <c r="C67" t="n">
-        <v>300.6474914550781</v>
+        <v>299.4145812988281</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7267045432871039</v>
+        <v>0.7203409075737</v>
       </c>
       <c r="E67" t="n">
-        <v>300.4008539373224</v>
+        <v>299.269755970348</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1805,16 +1755,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.625</v>
       </c>
       <c r="C68" t="n">
-        <v>295.2669830322266</v>
+        <v>294.0499572753906</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7238636396147988</v>
+        <v>0.7237500060688365</v>
       </c>
       <c r="E68" t="n">
-        <v>295.0277349298651</v>
+        <v>293.9084528142756</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1822,16 +1772,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.6175000071525574</v>
       </c>
       <c r="C69" t="n">
-        <v>289.9811706542969</v>
+        <v>288.7839660644531</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7215909145095132</v>
+        <v>0.7156818183985624</v>
       </c>
       <c r="E69" t="n">
-        <v>289.7572021484375</v>
+        <v>288.6533230868253</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1839,16 +1789,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5499999821186066</v>
+        <v>0.6175000071525574</v>
       </c>
       <c r="C70" t="n">
-        <v>284.8048706054688</v>
+        <v>283.62255859375</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7203409129923041</v>
+        <v>0.715113639831543</v>
       </c>
       <c r="E70" t="n">
-        <v>284.5873329856179</v>
+        <v>283.4974365234375</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1856,16 +1806,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.6324999928474426</v>
       </c>
       <c r="C71" t="n">
-        <v>279.7299194335938</v>
+        <v>278.5614776611328</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7244318127632141</v>
+        <v>0.7147727283564481</v>
       </c>
       <c r="E71" t="n">
-        <v>279.5175004438921</v>
+        <v>278.4423328746449</v>
       </c>
     </row>
   </sheetData>
@@ -1879,7 +1829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1889,1256 +1839,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.6476868327402134</v>
       </c>
       <c r="B2" t="n">
-        <v>0.534668940039784</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007246376811594203</v>
+        <v>0.6594202898550725</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0.04901960784313725</v>
+        <v>0.5025125628140702</v>
       </c>
       <c r="B3" t="n">
-        <v>0.534668940039784</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007246376811594203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.04901960784313725</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02173913043478261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.02173913043478261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.03623188405797102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.03623188405797102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05072463768115942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.05072463768115942</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07971014492753623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.107843137254902</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07971014492753623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.107843137254902</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1231884057971015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1231884057971015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1521739130434783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.1372549019607843</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1521739130434783</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.1372549019607843</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1594202898550725</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>0.1568627450980392</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1594202898550725</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="n">
-        <v>0.1568627450980392</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1884057971014493</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1884057971014493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1956521739130435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="n">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1956521739130435</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="n">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2101449275362319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="n">
-        <v>0.1862745098039216</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2101449275362319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="n">
-        <v>0.1862745098039216</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.2246376811594203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="n">
-        <v>0.2058823529411765</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.2246376811594203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="n">
-        <v>0.2058823529411765</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="n">
-        <v>0.2156862745098039</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="n">
-        <v>0.2156862745098039</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.2463768115942029</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="n">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.2463768115942029</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="n">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.2826086956521739</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="n">
-        <v>0.2450980392156863</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.2826086956521739</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="n">
-        <v>0.2450980392156863</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.2971014492753623</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="n">
-        <v>0.2549019607843137</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.2971014492753623</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="n">
-        <v>0.2549019607843137</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.3043478260869565</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="n">
-        <v>0.2745098039215687</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.3043478260869565</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="n">
-        <v>0.2745098039215687</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.3478260869565217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="n">
-        <v>0.303921568627451</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.3478260869565217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="n">
-        <v>0.303921568627451</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.355072463768116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="n">
-        <v>0.3137254901960784</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.355072463768116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="n">
-        <v>0.3137254901960784</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.3695652173913043</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.3695652173913043</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.3768115942028986</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="n">
-        <v>0.3431372549019608</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.3768115942028986</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="n">
-        <v>0.3431372549019608</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.391304347826087</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="n">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.391304347826087</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="n">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.3985507246376812</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="n">
-        <v>0.3627450980392157</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.3985507246376812</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="n">
-        <v>0.3627450980392157</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.4420289855072464</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="n">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.4420289855072464</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="n">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.4782608695652174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="n">
-        <v>0.4803921568627451</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.4782608695652174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="n">
-        <v>0.4803921568627451</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.5289855072463768</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="n">
-        <v>0.5098039215686274</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.5289855072463768</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="n">
-        <v>0.5098039215686274</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.5362318840579711</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="n">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.5362318840579711</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="n">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.5434782608695652</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="n">
-        <v>0.5392156862745098</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.5434782608695652</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="n">
-        <v>0.5392156862745098</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.5579710144927537</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="n">
-        <v>0.5588235294117647</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.5579710144927537</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="n">
-        <v>0.5588235294117647</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.5797101449275363</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="n">
-        <v>0.5686274509803921</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.5797101449275363</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="n">
-        <v>0.5686274509803921</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.5942028985507246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="n">
-        <v>0.5784313725490197</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.5942028985507246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="n">
-        <v>0.5784313725490197</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.6014492753623188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.6014492753623188</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.6231884057971014</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="n">
-        <v>0.5980392156862745</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.6231884057971014</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="n">
-        <v>0.5980392156862745</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.6521739130434783</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="n">
-        <v>0.6078431372549019</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.6521739130434783</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="n">
-        <v>0.6078431372549019</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.6594202898550725</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="n">
-        <v>0.6176470588235294</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.6594202898550725</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="n">
-        <v>0.6176470588235294</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.6739130434782609</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="n">
-        <v>0.6274509803921569</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.6739130434782609</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="n">
-        <v>0.6274509803921569</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.6811594202898551</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="n">
-        <v>0.6372549019607843</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.6811594202898551</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="n">
-        <v>0.6372549019607843</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.7101449275362319</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.7101449275362319</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.7391304347826086</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="n">
-        <v>0.6764705882352942</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.7391304347826086</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="n">
-        <v>0.6764705882352942</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.7463768115942029</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="n">
-        <v>0.6862745098039216</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.7463768115942029</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="n">
-        <v>0.6862745098039216</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.7608695652173914</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="n">
-        <v>0.696078431372549</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.7608695652173914</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="n">
-        <v>0.696078431372549</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.7826086956521739</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="n">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.7826086956521739</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="n">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.7898550724637681</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="n">
-        <v>0.7156862745098039</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.7898550724637681</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="n">
-        <v>0.7156862745098039</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.8043478260869565</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="n">
-        <v>0.7549019607843137</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.8043478260869565</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="n">
-        <v>0.7549019607843137</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.8188405797101449</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="n">
-        <v>0.7941176470588235</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.8188405797101449</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="n">
-        <v>0.7941176470588235</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.8623188405797102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="n">
-        <v>0.8137254901960784</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.8623188405797102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="n">
-        <v>0.8137254901960784</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.8913043478260869</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.8913043478260869</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.9057971014492754</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.9057971014492754</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.9347826086956522</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="n">
-        <v>0.8529411764705882</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.9347826086956522</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="n">
-        <v>0.8529411764705882</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.9420289855072463</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="n">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.9420289855072463</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="n">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.9565217391304348</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="n">
-        <v>0.9117647058823529</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.9565217391304348</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="n">
-        <v>0.9117647058823529</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.9637681159420289</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="n">
-        <v>0.9313725490196079</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.9637681159420289</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="n">
-        <v>0.9313725490196079</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.9710144927536232</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.9710144927536232</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.9782608695652174</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="n">
-        <v>0.9705882352941176</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.9782608695652174</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="n">
-        <v>0.9705882352941176</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.9855072463768116</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="n">
-        <v>1</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.9855072463768116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="n">
-        <v>1</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.534668940039784</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1</v>
+        <v>0.4901960784313725</v>
       </c>
     </row>
   </sheetData>
@@ -3152,7 +1881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3162,13 +1891,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3176,10 +1905,1437 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441035</v>
       </c>
       <c r="C2" t="n">
+        <v>0.007246376811594203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
         <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.03623188405797102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03623188405797102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.05797101449275362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0.0392156862745098</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05797101449275362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0.0392156862745098</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07971014492753623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07971014492753623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.09420289855072464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>0.07843137254901961</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.09420289855072464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>0.07843137254901961</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.108695652173913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.108695652173913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1159420289855072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>0.09803921568627451</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1159420289855072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>0.09803921568627451</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1231884057971015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>0.107843137254902</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1231884057971015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>0.107843137254902</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1304347826086956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>0.1274509803921569</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1304347826086956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>0.1274509803921569</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1376811594202899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="n">
+        <v>0.1372549019607843</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1376811594202899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="n">
+        <v>0.1372549019607843</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="n">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="n">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1956521739130435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1956521739130435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="n">
+        <v>0.1862745098039216</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="n">
+        <v>0.1862745098039216</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2318840579710145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="n">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2318840579710145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="n">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2753623188405797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="n">
+        <v>0.2058823529411765</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2753623188405797</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="n">
+        <v>0.2058823529411765</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.3115942028985507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3115942028985507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="n">
+        <v>0.2254901960784314</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="n">
+        <v>0.2254901960784314</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.355072463768116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.355072463768116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.3623188405797101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="n">
+        <v>0.2843137254901961</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.3623188405797101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="n">
+        <v>0.2843137254901961</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.4130434782608696</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.4130434782608696</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.427536231884058</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="n">
+        <v>0.303921568627451</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.427536231884058</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="n">
+        <v>0.303921568627451</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.4347826086956522</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="n">
+        <v>0.3137254901960784</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.4347826086956522</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="n">
+        <v>0.3137254901960784</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.4420289855072464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="n">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.4420289855072464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="n">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.4492753623188406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.4492753623188406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.4565217391304348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="n">
+        <v>0.3431372549019608</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.4565217391304348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="n">
+        <v>0.3431372549019608</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.463768115942029</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.463768115942029</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.4710144927536232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="n">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.4710144927536232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="n">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.4855072463768116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="n">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.4855072463768116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="n">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.5289855072463768</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="n">
+        <v>0.4019607843137255</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.5289855072463768</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="n">
+        <v>0.4019607843137255</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.5362318840579711</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.5362318840579711</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5507246376811594</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="n">
+        <v>0.4215686274509804</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5507246376811594</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="n">
+        <v>0.4215686274509804</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5579710144927537</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="n">
+        <v>0.4313725490196079</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.5579710144927537</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="n">
+        <v>0.4313725490196079</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.5942028985507246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="n">
+        <v>0.4411764705882353</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.5942028985507246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="n">
+        <v>0.4411764705882353</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="n">
+        <v>0.4607843137254902</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.6014492753623188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="n">
+        <v>0.4607843137254902</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.6304347826086957</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="n">
+        <v>0.4803921568627451</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.6304347826086957</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="n">
+        <v>0.4803921568627451</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.6376811594202898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="n">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.6376811594202898</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="n">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.644927536231884</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.644927536231884</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.6521739130434783</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.6521739130434783</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.6594202898550725</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.6594202898550725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="n">
+        <v>0.5784313725490197</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="n">
+        <v>0.5784313725490197</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.6811594202898551</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.6811594202898551</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.7101449275362319</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="n">
+        <v>0.6078431372549019</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.7101449275362319</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="n">
+        <v>0.6078431372549019</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.7318840579710145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="n">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.7318840579710145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="n">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="n">
+        <v>0.6372549019607843</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="n">
+        <v>0.6372549019607843</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.7681159420289855</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.7681159420289855</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.7753623188405797</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="n">
+        <v>0.6568627450980392</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.7753623188405797</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="n">
+        <v>0.6568627450980392</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.7971014492753623</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="n">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.7971014492753623</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="n">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.8188405797101449</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="n">
+        <v>0.696078431372549</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.8188405797101449</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="n">
+        <v>0.696078431372549</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="n">
+        <v>0.7156862745098039</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="n">
+        <v>0.7156862745098039</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.855072463768116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="n">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.855072463768116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="n">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.8768115942028986</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="n">
+        <v>0.7549019607843137</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.8768115942028986</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="n">
+        <v>0.7549019607843137</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.8840579710144928</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="n">
+        <v>0.7745098039215687</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.8840579710144928</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="n">
+        <v>0.7745098039215687</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.8985507246376812</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="n">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.8985507246376812</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="n">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.9057971014492754</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.9057971014492754</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.927536231884058</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="n">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.927536231884058</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="n">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9492753623188406</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>0.8725490196078431</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9492753623188406</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.8725490196078431</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9637681159420289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>0.8921568627450981</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9637681159420289</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="n">
+        <v>0.8921568627450981</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9710144927536232</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.9710144927536232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.9782608695652174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.9782608695652174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.9927536231884058</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="n">
+        <v>0.9901960784313726</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9927536231884058</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="n">
+        <v>0.9901960784313726</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="n">
+        <v>1</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.5912901392441035</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5912901392441033</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.009803921568627451</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3187,29 +3343,29 @@
         <v>0.007246376811594203</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.009803921568627451</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.01449275362318841</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.01449275362318841</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C5" t="n">
         <v>0.02941176470588235</v>
@@ -3220,18 +3376,18 @@
         <v>0.02173913043478261</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C7" t="n">
         <v>0.05882352941176471</v>
@@ -3242,21 +3398,21 @@
         <v>0.02898550724637681</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.107843137254902</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.02898550724637681</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06862745098039216</v>
+        <v>0.107843137254902</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3264,21 +3420,21 @@
         <v>0.03623188405797102</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06862745098039216</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.03623188405797102</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3286,40 +3442,40 @@
         <v>0.04347826086956522</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.1274509803921569</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.05072463768115942</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1372549019607843</v>
+        <v>0.1274509803921569</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.05797101449275362</v>
+        <v>0.05072463768115942</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1372549019607843</v>
+        <v>0.1470588235294118</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.05797101449275362</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C15" t="n">
         <v>0.1470588235294118</v>
@@ -3327,35 +3483,35 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.06521739130434782</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.06521739130434782</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.09420289855072464</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3363,73 +3519,73 @@
         <v>0.09420289855072464</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.108695652173913</v>
+        <v>0.09420289855072464</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2156862745098039</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.108695652173913</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1862745098039216</v>
+        <v>0.2156862745098039</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1376811594202899</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1862745098039216</v>
+        <v>0.2254901960784314</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1376811594202899</v>
+        <v>0.1159420289855072</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.2254901960784314</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.1159420289855072</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.2450980392156863</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.1231884057971015</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C25" t="n">
         <v>0.2450980392156863</v>
@@ -3437,32 +3593,32 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.1231884057971015</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2450980392156863</v>
+        <v>0.2745098039215687</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2843137254901961</v>
+        <v>0.2745098039215687</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.2101449275362319</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C28" t="n">
         <v>0.2843137254901961</v>
@@ -3470,32 +3626,32 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.2101449275362319</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2843137254901961</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.303921568627451</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C31" t="n">
         <v>0.303921568627451</v>
@@ -3503,21 +3659,21 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2391304347826087</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C32" t="n">
-        <v>0.303921568627451</v>
+        <v>0.3137254901960784</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2391304347826087</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C33" t="n">
         <v>0.3137254901960784</v>
@@ -3525,65 +3681,65 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2536231884057971</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3137254901960784</v>
+        <v>0.3431372549019608</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2536231884057971</v>
+        <v>0.2246376811594203</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.3431372549019608</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.2246376811594203</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2898550724637681</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3627450980392157</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2898550724637681</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C39" t="n">
         <v>0.3627450980392157</v>
@@ -3591,307 +3747,307 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.3188405797101449</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3627450980392157</v>
+        <v>0.3823529411764706</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.3188405797101449</v>
+        <v>0.2681159420289855</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3725490196078431</v>
+        <v>0.3823529411764706</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.2681159420289855</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3725490196078431</v>
+        <v>0.392156862745098</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.2898550724637681</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.392156862745098</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3405797101449275</v>
+        <v>0.2898550724637681</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3405797101449275</v>
+        <v>0.3188405797101449</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C45" t="n">
-        <v>0.392156862745098</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3478260869565217</v>
+        <v>0.3188405797101449</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C46" t="n">
-        <v>0.392156862745098</v>
+        <v>0.4215686274509804</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3478260869565217</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4019607843137255</v>
+        <v>0.4215686274509804</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3768115942028986</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4019607843137255</v>
+        <v>0.4705882352941176</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3768115942028986</v>
+        <v>0.3405797101449275</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.4705882352941176</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3985507246376812</v>
+        <v>0.3405797101449275</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.4901960784313725</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3985507246376812</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4215686274509804</v>
+        <v>0.4901960784313725</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.4057971014492754</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4215686274509804</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.4057971014492754</v>
+        <v>0.355072463768116</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4313725490196079</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.4202898550724637</v>
+        <v>0.355072463768116</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4313725490196079</v>
+        <v>0.5098039215686274</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.4202898550724637</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.5098039215686274</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4420289855072464</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.5196078431372549</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4420289855072464</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4607843137254902</v>
+        <v>0.5196078431372549</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4607843137254902</v>
+        <v>0.5392156862745098</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.3985507246376812</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5392156862745098</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.463768115942029</v>
+        <v>0.3985507246376812</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.463768115942029</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4901960784313725</v>
+        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.4710144927536232</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4901960784313725</v>
+        <v>0.5686274509803921</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4710144927536232</v>
+        <v>0.4420289855072464</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5</v>
+        <v>0.5686274509803921</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5</v>
+        <v>0.4420289855072464</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5</v>
+        <v>0.5784313725490197</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5196078431372549</v>
+        <v>0.5784313725490197</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5196078431372549</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C67" t="n">
         <v>0.5882352941176471</v>
@@ -3899,540 +4055,661 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5579710144927537</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5980392156862745</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5579710144927537</v>
+        <v>0.4710144927536232</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6372549019607843</v>
+        <v>0.5980392156862745</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.6014492753623188</v>
+        <v>0.4710144927536232</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6372549019607843</v>
+        <v>0.6176470588235294</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.6014492753623188</v>
+        <v>0.5144927536231884</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6176470588235294</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.5144927536231884</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6274509803921569</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.5289855072463768</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6568627450980392</v>
+        <v>0.6274509803921569</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6231884057971014</v>
+        <v>0.5289855072463768</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6568627450980392</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6231884057971014</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6304347826086957</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6568627450980392</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.6304347826086957</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6862745098039216</v>
+        <v>0.6568627450980392</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.644927536231884</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6862745098039216</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.644927536231884</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C79" t="n">
-        <v>0.696078431372549</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C80" t="n">
-        <v>0.696078431372549</v>
+        <v>0.6764705882352942</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7254901960784313</v>
+        <v>0.6764705882352942</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7254901960784313</v>
+        <v>0.6862745098039216</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7450980392156863</v>
+        <v>0.6862745098039216</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.7028985507246377</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7450980392156863</v>
+        <v>0.696078431372549</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.7028985507246377</v>
+        <v>0.572463768115942</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7549019607843137</v>
+        <v>0.696078431372549</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.7173913043478261</v>
+        <v>0.572463768115942</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7549019607843137</v>
+        <v>0.7058823529411765</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.7173913043478261</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7058823529411765</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.7536231884057971</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7156862745098039</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.7536231884057971</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7843137254901961</v>
+        <v>0.7156862745098039</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.7681159420289855</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7843137254901961</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.7681159420289855</v>
+        <v>0.644927536231884</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.7753623188405797</v>
+        <v>0.644927536231884</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.7745098039215687</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.7753623188405797</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8137254901960784</v>
+        <v>0.7745098039215687</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.7898550724637681</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8137254901960784</v>
+        <v>0.7843137254901961</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.7898550724637681</v>
+        <v>0.6884057971014492</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.7843137254901961</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.8043478260869565</v>
+        <v>0.6884057971014492</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.7941176470588235</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.8043478260869565</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7941176470588235</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.8115942028985508</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.803921568627451</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.8115942028985508</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.803921568627451</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.8405797101449275</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.8137254901960784</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.8405797101449275</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.8137254901960784</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.8478260869565217</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.8235294117647058</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.8478260869565217</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.8235294117647058</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.8768115942028986</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.8529411764705882</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.8768115942028986</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8921568627450981</v>
+        <v>0.8529411764705882</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.9202898550724637</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8921568627450981</v>
+        <v>0.8627450980392157</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.9202898550724637</v>
+        <v>0.8623188405797102</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9019607843137255</v>
+        <v>0.8627450980392157</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.9492753623188406</v>
+        <v>0.8623188405797102</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9019607843137255</v>
+        <v>0.8725490196078431</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.9492753623188406</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.8725490196078431</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.9637681159420289</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.8921568627450981</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.9637681159420289</v>
+        <v>0.8768115942028986</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.8921568627450981</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.8768115942028986</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9019607843137255</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9509803921568627</v>
+        <v>0.9019607843137255</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
-        <v>0.9927536231884058</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9509803921568627</v>
+        <v>0.9117647058823529</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="n">
-        <v>0.9927536231884058</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5346689400397839</v>
+        <v>0.5912901392441033</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0.9117647058823529</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="n">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.5912901392441033</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9215686274509803</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.9057971014492754</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.5912901392441033</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9215686274509803</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0.9057971014492754</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5912901392441033</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>0.9202898550724637</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.5912901392441033</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>0.9202898550724637</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5912901392441033</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9607843137254902</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="n">
+        <v>0.9420289855072463</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.5912901392441033</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9607843137254902</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="n">
+        <v>0.9420289855072463</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.5912901392441033</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.5912901392441033</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.5912901392441033</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.9803921568627451</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="n">
+        <v>0.9637681159420289</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.5912901392441033</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.9803921568627451</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="n">
+        <v>0.9637681159420289</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.5912901392441033</v>
+      </c>
+      <c r="C126" t="n">
         <v>1</v>
       </c>
-      <c r="B116" t="n">
-        <v>0.5346689400397839</v>
-      </c>
-      <c r="C116" t="n">
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="n">
+        <v>1</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.5912901392441033</v>
+      </c>
+      <c r="C127" t="n">
         <v>1</v>
       </c>
     </row>
